--- a/dy/expdata/20002.xlsx
+++ b/dy/expdata/20002.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/High x/Datasheets/dy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/dy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45033B98-9768-BE40-B48F-66743870A348}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2307E5AB-2431-8141-81CF-392AD58941AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,9 +66,6 @@
     <t>stat_u</t>
   </si>
   <si>
-    <t>syst_u</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
@@ -88,6 +85,9 @@
   </si>
   <si>
     <t>norm_c</t>
+  </si>
+  <si>
+    <t>syst_c</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
   <dimension ref="A1:AMM185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -441,10 +441,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -462,10 +462,10 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -473,10 +473,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="D2" s="2">
         <v>14.9</v>
@@ -495,10 +495,10 @@
         <v>0.54099999999999993</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K2" s="2">
         <v>1.2110000000000001</v>
@@ -519,10 +519,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="D3" s="2">
         <v>14.9</v>
@@ -541,10 +541,10 @@
         <v>0.432</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K3" s="2">
         <v>1.141</v>
@@ -565,10 +565,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="D4" s="2">
         <v>14.9</v>
@@ -587,10 +587,10 @@
         <v>0.33800000000000008</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K4" s="2">
         <v>1.196</v>
@@ -611,10 +611,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="D5" s="2">
         <v>14.9</v>
@@ -633,10 +633,10 @@
         <v>0.25600000000000001</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K5" s="2">
         <v>1.165</v>
@@ -657,10 +657,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="D6" s="2">
         <v>14.9</v>
@@ -679,10 +679,10 @@
         <v>0.183</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K6" s="2">
         <v>1.1930000000000001</v>
@@ -703,10 +703,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="D7" s="2">
         <v>14.9</v>
@@ -725,10 +725,10 @@
         <v>9.1999999999999971E-2</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K7" s="2">
         <v>1.113</v>
